--- a/Bobot.xlsx
+++ b/Bobot.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>47.16990566028302</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.8113883008419</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>35.35533905932738</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>25.49509756796392</v>
+        <v>22.3606797749979</v>
       </c>
       <c r="H2">
-        <v>58.52349955359813</v>
+        <v>53.85164807134504</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>64.03124237432849</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -453,19 +453,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47.16990566028302</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>80.15609770940699</v>
       </c>
       <c r="E3">
-        <v>62.64982043070834</v>
+        <v>46.09772228646444</v>
       </c>
       <c r="F3">
-        <v>20.6155281280883</v>
+        <v>72.11102550927978</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>80.15609770940699</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>64.03124237432849</v>
       </c>
       <c r="F4">
-        <v>90.13878188659973</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>39.05124837953327</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>43.01162633521314</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -523,22 +523,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.8113883008419</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>62.64982043070834</v>
+        <v>46.09772228646444</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>64.03124237432849</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>50.99019513592785</v>
+        <v>26.92582403567252</v>
       </c>
       <c r="G5">
-        <v>41.23105625617661</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -558,22 +558,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35.35533905932738</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>20.6155281280883</v>
+        <v>72.11102550927978</v>
       </c>
       <c r="D6">
-        <v>90.13878188659973</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>50.99019513592785</v>
+        <v>26.92582403567252</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>38.07886552931954</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -593,19 +593,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.49509756796392</v>
+        <v>22.3606797749979</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>39.05124837953327</v>
       </c>
       <c r="E7">
-        <v>41.23105625617661</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>38.07886552931954</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>39.05124837953327</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>58.52349955359813</v>
+        <v>53.85164807134504</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.18033988749895</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>35.35533905932738</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>70.71067811865476</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11.18033988749895</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>74.33034373659252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>43.01162633521314</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>39.05124837953327</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>35.35533905932738</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>83.21658488546619</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -733,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>64.03124237432849</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>70.71067811865476</v>
       </c>
       <c r="I11">
-        <v>74.33034373659252</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>83.21658488546619</v>
       </c>
       <c r="K11">
         <v>0</v>
